--- a/data/input/employee_absence_data_11.xlsx
+++ b/data/input/employee_absence_data_11.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11714</v>
+        <v>80318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Luísa Costela</t>
+          <t>Heitor Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,61 +482,61 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>8875.940000000001</v>
+        <v>4985.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28727</v>
+        <v>14563</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lorenzo Ribeiro</t>
+          <t>José Pedro Fernandes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>6379.83</v>
+        <v>4801.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82004</v>
+        <v>27436</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Davi Lucca Martins</t>
+          <t>Bianca da Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -546,21 +546,21 @@
         <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>10871.32</v>
+        <v>5220.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88757</v>
+        <v>78828</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Gabriel Pastor</t>
+          <t>Pietra da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,187 +569,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45088</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>10458.17</v>
+        <v>8116.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89296</v>
+        <v>46482</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laís Rocha</t>
+          <t>Fernando Santos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>9200.09</v>
+        <v>5744.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91337</v>
+        <v>90911</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juan Sousa</t>
+          <t>Catarina Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45087</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>4755.39</v>
+        <v>2203.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96002</v>
+        <v>13253</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Miguel Leão</t>
+          <t>Alícia Nogueira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45095</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>8723.77</v>
+        <v>9902.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78894</v>
+        <v>31123</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Levi Machado</t>
+          <t>Srta. Maria Julia Azevedo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>2710.33</v>
+        <v>9752.450000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>48154</v>
+        <v>49999</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arthur Moraes</t>
+          <t>Marina Cirino</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>3764.74</v>
+        <v>3241.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68913</v>
+        <v>11969</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nicole Rocha</t>
+          <t>Eloá Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45092</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>3196.58</v>
+        <v>8281.219999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_11.xlsx
+++ b/data/input/employee_absence_data_11.xlsx
@@ -464,103 +464,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80318</v>
+        <v>11834</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heitor Santos</t>
+          <t>Dra. Maria Eduarda Garcia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>4985.5</v>
+        <v>2480.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14563</v>
+        <v>6591</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>José Pedro Fernandes</t>
+          <t>Lunna da Rosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>4801.01</v>
+        <v>5984.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27436</v>
+        <v>63847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bianca da Cunha</t>
+          <t>Evelyn Cirino</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>5220.23</v>
+        <v>2874.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78828</v>
+        <v>24142</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pietra da Costa</t>
+          <t>Dra. Nina Barros</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,85 +569,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45090</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>8116.24</v>
+        <v>7044.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46482</v>
+        <v>46104</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fernando Santos</t>
+          <t>Cauã Moraes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>5744.2</v>
+        <v>5166.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>90911</v>
+        <v>27727</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Catarina Castro</t>
+          <t>Lucas Gabriel Alves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>2203.87</v>
+        <v>5065.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13253</v>
+        <v>3517</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Alícia Nogueira</t>
+          <t>Srta. Sophie Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -656,100 +656,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45085</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>9902.43</v>
+        <v>6395.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>31123</v>
+        <v>31830</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Maria Julia Azevedo</t>
+          <t>Vitor Gabriel Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45094</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>9752.450000000001</v>
+        <v>4478.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>49999</v>
+        <v>68160</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marina Cirino</t>
+          <t>Sr. João Felipe Cirino</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45091</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>3241.59</v>
+        <v>6699.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11969</v>
+        <v>12163</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eloá Moreira</t>
+          <t>Davi Miguel Cirino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45088</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>8281.219999999999</v>
+        <v>8772.09</v>
       </c>
     </row>
   </sheetData>
